--- a/AAII_Financials/Quarterly/PXDT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PXDT_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -719,7 +719,7 @@
         <v>1100</v>
       </c>
       <c r="E8" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="F8" s="3">
         <v>1200</v>
@@ -774,10 +774,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E10" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="F10" s="3">
         <v>700</v>
@@ -819,10 +819,10 @@
         <v>2300</v>
       </c>
       <c r="E12" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="F12" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -942,13 +942,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="E17" s="3">
-        <v>11900</v>
+        <v>11500</v>
       </c>
       <c r="F17" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -971,13 +971,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-6000</v>
+        <v>-5800</v>
       </c>
       <c r="E18" s="3">
-        <v>-7500</v>
+        <v>-7300</v>
       </c>
       <c r="F18" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1042,13 +1042,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-5700</v>
+        <v>-5500</v>
       </c>
       <c r="E21" s="3">
-        <v>-6900</v>
+        <v>-6700</v>
       </c>
       <c r="F21" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1100,13 +1100,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-6100</v>
+        <v>-5900</v>
       </c>
       <c r="E23" s="3">
-        <v>-7600</v>
+        <v>-7400</v>
       </c>
       <c r="F23" s="3">
-        <v>-4300</v>
+        <v>-4100</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1187,13 +1187,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-6100</v>
+        <v>-5900</v>
       </c>
       <c r="E26" s="3">
-        <v>-7600</v>
+        <v>-7400</v>
       </c>
       <c r="F26" s="3">
-        <v>-4300</v>
+        <v>-4100</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1216,13 +1216,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-6100</v>
+        <v>-5900</v>
       </c>
       <c r="E27" s="3">
-        <v>-7600</v>
+        <v>-7400</v>
       </c>
       <c r="F27" s="3">
-        <v>-4300</v>
+        <v>-4100</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1390,13 +1390,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-6100</v>
+        <v>-5900</v>
       </c>
       <c r="E33" s="3">
-        <v>-7600</v>
+        <v>-7400</v>
       </c>
       <c r="F33" s="3">
-        <v>-4300</v>
+        <v>-4100</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1448,13 +1448,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-6100</v>
+        <v>-5900</v>
       </c>
       <c r="E35" s="3">
-        <v>-7600</v>
+        <v>-7400</v>
       </c>
       <c r="F35" s="3">
-        <v>-4300</v>
+        <v>-4100</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1537,7 +1537,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>22500</v>
+        <v>21700</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>3</v>
@@ -1682,7 +1682,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>25700</v>
+        <v>24800</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>3</v>
@@ -1740,7 +1740,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10700</v>
+        <v>10300</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>3</v>
@@ -1914,7 +1914,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>37200</v>
+        <v>35900</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>3</v>
@@ -1969,7 +1969,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>3</v>
@@ -2056,7 +2056,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>3</v>
@@ -2085,7 +2085,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2114,7 +2114,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2230,7 +2230,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16700</v>
+        <v>16100</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>3</v>
@@ -2330,7 +2330,7 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -2388,7 +2388,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-22700</v>
+        <v>-21900</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>3</v>
@@ -2504,7 +2504,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>3</v>
@@ -2596,13 +2596,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-6100</v>
+        <v>-5900</v>
       </c>
       <c r="E81" s="3">
-        <v>-7600</v>
+        <v>-7400</v>
       </c>
       <c r="F81" s="3">
-        <v>-4300</v>
+        <v>-4100</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2812,13 +2812,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-5900</v>
+        <v>-5700</v>
       </c>
       <c r="E89" s="3">
-        <v>-7400</v>
+        <v>-7100</v>
       </c>
       <c r="F89" s="3">
-        <v>-4700</v>
+        <v>-4500</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -3099,13 +3099,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>16400</v>
+        <v>15900</v>
       </c>
       <c r="E100" s="3">
         <v>-800</v>
       </c>
       <c r="F100" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3157,13 +3157,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>10200</v>
+        <v>9800</v>
       </c>
       <c r="E102" s="3">
-        <v>-8700</v>
+        <v>-8400</v>
       </c>
       <c r="F102" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
